--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8435B710-270C-4148-9136-3FB2702B4C47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC53E3-4F92-4EE5-8CA2-39FB9C39A0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,19 +174,19 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Сумма руб.</t>
-  </si>
-  <si>
-    <t>Площадь кв.м</t>
-  </si>
-  <si>
-    <t>Просрочка дней</t>
-  </si>
-  <si>
-    <t>Тариф руб/кв.м</t>
-  </si>
-  <si>
-    <t>Итог руб.</t>
+    <t>Площадь, кв.м</t>
+  </si>
+  <si>
+    <t>Тариф, руб/кв.м</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Итог, руб.</t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -244,7 +244,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +530,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="P29" sqref="P29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -579,13 +579,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
@@ -594,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>4</v>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AC53E3-4F92-4EE5-8CA2-39FB9C39A0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D672FC-A6DD-4C1C-BB67-3ADB191C00A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">№ квартиры </t>
   </si>
   <si>
-    <t xml:space="preserve">Фамилия квартирасъемщика </t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Шраф</t>
-  </si>
-  <si>
     <t>Общая сумма</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Итог, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фамилия квартирасъёмщика </t>
+  </si>
+  <si>
+    <t>Штраф</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,34 +576,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K2" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -661,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -686,6 +686,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="2">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="2">
@@ -707,7 +708,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -732,6 +733,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
+        <f t="shared" ref="I5:I38" si="5">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -753,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="4"/>
@@ -778,6 +780,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -799,7 +802,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="4"/>
@@ -824,6 +827,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -845,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="4"/>
@@ -870,6 +874,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -891,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="4"/>
@@ -916,6 +921,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -937,7 +943,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="4"/>
@@ -962,6 +968,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -983,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="4"/>
@@ -1008,6 +1015,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1029,7 +1037,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="4"/>
@@ -1054,6 +1062,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1075,7 +1084,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="4"/>
@@ -1100,6 +1109,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1121,7 +1131,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="4"/>
@@ -1146,6 +1156,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1167,7 +1178,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -1192,6 +1203,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1213,7 +1225,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="4"/>
@@ -1238,6 +1250,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1259,7 +1272,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="4"/>
@@ -1284,6 +1297,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1305,7 +1319,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="4"/>
@@ -1330,6 +1344,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1351,7 +1366,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="4"/>
@@ -1376,6 +1391,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1397,7 +1413,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="4"/>
@@ -1422,6 +1438,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1443,7 +1460,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="4"/>
@@ -1468,6 +1485,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1489,7 +1507,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="4"/>
@@ -1514,6 +1532,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1535,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="4"/>
@@ -1560,6 +1579,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1581,7 +1601,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="4"/>
@@ -1606,6 +1626,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1627,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="4"/>
@@ -1652,6 +1673,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1673,7 +1695,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="4"/>
@@ -1698,6 +1720,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1719,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="4"/>
@@ -1744,6 +1767,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1765,7 +1789,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="4"/>
@@ -1790,6 +1814,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1806,7 +1831,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="4"/>
@@ -1831,6 +1856,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1847,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="4"/>
@@ -1872,6 +1898,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1888,7 +1915,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="4"/>
@@ -1913,6 +1940,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1929,7 +1957,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="4"/>
@@ -1954,6 +1982,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -1970,7 +1999,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="4"/>
@@ -1995,6 +2024,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2011,7 +2041,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="4"/>
@@ -2036,6 +2066,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2052,7 +2083,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="4"/>
@@ -2077,6 +2108,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2093,7 +2125,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="4"/>
@@ -2118,6 +2150,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2134,7 +2167,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="4"/>
@@ -2159,6 +2192,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2175,7 +2209,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="4"/>
@@ -2200,6 +2234,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
+        <f t="shared" si="5"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2216,38 +2251,38 @@
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C40" s="5" t="str">
-        <f>DOLLAR(SUM(K3:K38),0)</f>
-        <v>23 450 ₽</v>
+        <f>INT(SUM(K3:K38))&amp;", руб."</f>
+        <v>23449, руб.</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C41" s="3" t="str">
-        <f>AVERAGE(C3:C38)&amp;" кв.м"</f>
-        <v>61,25 кв.м</v>
+        <f>AVERAGE(C3:C38)&amp;", кв.м."</f>
+        <v>61,25, кв.м.</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" s="3" t="str">
-        <f>MAX(H3:H38)&amp;" дней"</f>
-        <v>27 дней</v>
+        <f>MAX(H3:H38)&amp;", дней"</f>
+        <v>27, дней</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C43" s="3" t="str">
-        <f>DOLLAR(MAX(K3:K38),0)</f>
-        <v>1 001 ₽</v>
+        <f>MAX(K3:K38)&amp;", руб."</f>
+        <v>1001, руб.</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0D672FC-A6DD-4C1C-BB67-3ADB191C00A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3ABB32-1828-4D9F-8F27-B31123D9911F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -997,12 +997,12 @@
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E11" s="2">
         <f t="shared" si="0"/>
-        <v>471.90000000000003</v>
+        <v>943.80000000000007</v>
       </c>
       <c r="F11" s="4">
         <v>44813</v>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" si="3"/>
-        <v>471.90000000000003</v>
+        <v>943.80000000000007</v>
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
@@ -1044,12 +1044,12 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E12" s="2">
         <f t="shared" si="0"/>
-        <v>468.32500000000005</v>
+        <v>936.65000000000009</v>
       </c>
       <c r="F12" s="4">
         <v>44813</v>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="K12" s="2">
         <f t="shared" si="3"/>
-        <v>478.32500000000005</v>
+        <v>946.65000000000009</v>
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1091,12 +1091,12 @@
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E13" s="2">
         <f t="shared" si="0"/>
-        <v>464.75</v>
+        <v>929.5</v>
       </c>
       <c r="F13" s="4">
         <v>44813</v>
@@ -1118,7 +1118,7 @@
       </c>
       <c r="K13" s="2">
         <f t="shared" si="3"/>
-        <v>484.75</v>
+        <v>949.5</v>
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1138,12 +1138,12 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="0"/>
-        <v>461.17500000000001</v>
+        <v>922.35</v>
       </c>
       <c r="F14" s="4">
         <v>44813</v>
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K14" s="2">
         <f t="shared" si="3"/>
-        <v>491.17500000000001</v>
+        <v>952.35</v>
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1185,12 +1185,12 @@
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" si="0"/>
-        <v>457.6</v>
+        <v>915.2</v>
       </c>
       <c r="F15" s="4">
         <v>44813</v>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" si="3"/>
-        <v>497.6</v>
+        <v>955.2</v>
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1232,12 +1232,12 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>454.02500000000003</v>
+        <v>908.05000000000007</v>
       </c>
       <c r="F16" s="4">
         <v>44813</v>
@@ -1259,7 +1259,7 @@
       </c>
       <c r="K16" s="2">
         <f t="shared" si="3"/>
-        <v>504.02500000000003</v>
+        <v>958.05000000000007</v>
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1279,12 +1279,12 @@
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" si="0"/>
-        <v>450.45000000000005</v>
+        <v>900.90000000000009</v>
       </c>
       <c r="F17" s="4">
         <v>44813</v>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>510.45000000000005</v>
+        <v>960.90000000000009</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -1326,12 +1326,12 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" si="0"/>
-        <v>446.875</v>
+        <v>893.75</v>
       </c>
       <c r="F18" s="4">
         <v>44813</v>
@@ -1353,7 +1353,7 @@
       </c>
       <c r="K18" s="2">
         <f t="shared" si="3"/>
-        <v>516.875</v>
+        <v>963.75</v>
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1373,12 +1373,12 @@
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E19" s="2">
         <f t="shared" si="0"/>
-        <v>443.3</v>
+        <v>886.6</v>
       </c>
       <c r="F19" s="4">
         <v>44813</v>
@@ -1400,7 +1400,7 @@
       </c>
       <c r="K19" s="2">
         <f t="shared" si="3"/>
-        <v>523.29999999999995</v>
+        <v>966.6</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1420,12 +1420,12 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E20" s="2">
         <f t="shared" si="0"/>
-        <v>439.72500000000002</v>
+        <v>879.45</v>
       </c>
       <c r="F20" s="4">
         <v>44813</v>
@@ -1447,7 +1447,7 @@
       </c>
       <c r="K20" s="2">
         <f t="shared" si="3"/>
-        <v>529.72500000000002</v>
+        <v>969.45</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
@@ -1467,12 +1467,12 @@
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" si="0"/>
-        <v>436.15000000000003</v>
+        <v>872.30000000000007</v>
       </c>
       <c r="F21" s="4">
         <v>44813</v>
@@ -1494,7 +1494,7 @@
       </c>
       <c r="K21" s="2">
         <f t="shared" si="3"/>
-        <v>536.15000000000009</v>
+        <v>972.30000000000007</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -1514,12 +1514,12 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="0"/>
-        <v>432.57500000000005</v>
+        <v>865.15000000000009</v>
       </c>
       <c r="F22" s="4">
         <v>44813</v>
@@ -1541,7 +1541,7 @@
       </c>
       <c r="K22" s="2">
         <f t="shared" si="3"/>
-        <v>542.57500000000005</v>
+        <v>975.15000000000009</v>
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -1561,12 +1561,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E23" s="2">
         <f t="shared" si="0"/>
-        <v>429</v>
+        <v>858</v>
       </c>
       <c r="F23" s="4">
         <v>44813</v>
@@ -1588,7 +1588,7 @@
       </c>
       <c r="K23" s="2">
         <f t="shared" si="3"/>
-        <v>549</v>
+        <v>978</v>
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
@@ -1608,12 +1608,12 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E24" s="2">
         <f t="shared" si="0"/>
-        <v>425.42500000000001</v>
+        <v>850.85</v>
       </c>
       <c r="F24" s="4">
         <v>44813</v>
@@ -1635,7 +1635,7 @@
       </c>
       <c r="K24" s="2">
         <f t="shared" si="3"/>
-        <v>555.42499999999995</v>
+        <v>980.85</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
@@ -1655,12 +1655,12 @@
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E25" s="2">
         <f t="shared" si="0"/>
-        <v>421.85</v>
+        <v>843.7</v>
       </c>
       <c r="F25" s="4">
         <v>44813</v>
@@ -1682,7 +1682,7 @@
       </c>
       <c r="K25" s="2">
         <f t="shared" si="3"/>
-        <v>561.85</v>
+        <v>983.7</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
@@ -1702,12 +1702,12 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>418.27500000000003</v>
+        <v>836.55000000000007</v>
       </c>
       <c r="F26" s="4">
         <v>44813</v>
@@ -1729,7 +1729,7 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" si="3"/>
-        <v>568.27500000000009</v>
+        <v>986.55000000000007</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
@@ -1749,12 +1749,12 @@
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E27" s="2">
         <f t="shared" si="0"/>
-        <v>414.70000000000005</v>
+        <v>829.40000000000009</v>
       </c>
       <c r="F27" s="4">
         <v>44813</v>
@@ -1776,7 +1776,7 @@
       </c>
       <c r="K27" s="2">
         <f t="shared" si="3"/>
-        <v>574.70000000000005</v>
+        <v>989.40000000000009</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
@@ -1796,12 +1796,12 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="3">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>411.125</v>
+        <v>822.25</v>
       </c>
       <c r="F28" s="4">
         <v>44813</v>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="K28" s="2">
         <f t="shared" si="3"/>
-        <v>581.125</v>
+        <v>992.25</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -1838,12 +1838,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="3">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E29" s="2">
         <f t="shared" si="0"/>
-        <v>407.55</v>
+        <v>815.1</v>
       </c>
       <c r="F29" s="4">
         <v>44813</v>
@@ -1865,7 +1865,7 @@
       </c>
       <c r="K29" s="2">
         <f t="shared" si="3"/>
-        <v>587.54999999999995</v>
+        <v>995.1</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -1880,12 +1880,12 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="3">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E30" s="2">
         <f t="shared" si="0"/>
-        <v>403.97500000000002</v>
+        <v>807.95</v>
       </c>
       <c r="F30" s="4">
         <v>44813</v>
@@ -1907,7 +1907,7 @@
       </c>
       <c r="K30" s="2">
         <f t="shared" si="3"/>
-        <v>593.97500000000002</v>
+        <v>997.95</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -1922,12 +1922,12 @@
         <v>56</v>
       </c>
       <c r="D31" s="3">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E31" s="2">
         <f t="shared" si="0"/>
-        <v>400.40000000000003</v>
+        <v>800.80000000000007</v>
       </c>
       <c r="F31" s="4">
         <v>44813</v>
@@ -1949,7 +1949,7 @@
       </c>
       <c r="K31" s="2">
         <f t="shared" si="3"/>
-        <v>600.40000000000009</v>
+        <v>1000.8000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
@@ -1964,12 +1964,12 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="3">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E32" s="2">
         <f t="shared" si="0"/>
-        <v>396.82500000000005</v>
+        <v>793.65000000000009</v>
       </c>
       <c r="F32" s="4">
         <v>44813</v>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="K32" s="2">
         <f t="shared" si="3"/>
-        <v>606.82500000000005</v>
+        <v>1003.6500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2006,12 +2006,12 @@
         <v>55</v>
       </c>
       <c r="D33" s="3">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" si="0"/>
-        <v>393.25</v>
+        <v>786.5</v>
       </c>
       <c r="F33" s="4">
         <v>44813</v>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="K33" s="2">
         <f t="shared" si="3"/>
-        <v>613.25</v>
+        <v>1006.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2048,12 +2048,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="3">
-        <f>D10/2</f>
-        <v>7.15</v>
+        <f>A1*1.1</f>
+        <v>14.3</v>
       </c>
       <c r="E34" s="2">
         <f t="shared" si="0"/>
-        <v>389.67500000000001</v>
+        <v>779.35</v>
       </c>
       <c r="F34" s="4">
         <v>44813</v>
@@ -2075,7 +2075,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" si="3"/>
-        <v>619.67499999999995</v>
+        <v>1009.35</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C40" s="5" t="str">
         <f>INT(SUM(K3:K38))&amp;", руб."</f>
-        <v>23449, руб.</v>
+        <v>33788, руб.</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C43" s="3" t="str">
         <f>MAX(K3:K38)&amp;", руб."</f>
-        <v>1001, руб.</v>
+        <v>1009,35, руб.</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE3ABB32-1828-4D9F-8F27-B31123D9911F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE63E98-F938-4DB5-8D08-A5877D8D59CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -93,12 +93,6 @@
     <t>Коканов</t>
   </si>
   <si>
-    <t>Абделазиз Мохамед</t>
-  </si>
-  <si>
-    <t>Мохамед Боуйе</t>
-  </si>
-  <si>
     <t>Надеждин</t>
   </si>
   <si>
@@ -120,9 +114,6 @@
     <t>Семагин</t>
   </si>
   <si>
-    <t>Семенов</t>
-  </si>
-  <si>
     <t>Таухутдинова</t>
   </si>
   <si>
@@ -132,9 +123,6 @@
     <t>Филатов</t>
   </si>
   <si>
-    <t>Хабк Осама</t>
-  </si>
-  <si>
     <t>Хазипова</t>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Куропаткин 1</t>
-  </si>
-  <si>
     <t>Куропаткин 2</t>
   </si>
   <si>
@@ -187,6 +172,21 @@
   </si>
   <si>
     <t>Штраф</t>
+  </si>
+  <si>
+    <t>Абделазиз</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Мохамед </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хабк </t>
+  </si>
+  <si>
+    <t>Семёнов</t>
+  </si>
+  <si>
+    <t>Кузин</t>
   </si>
 </sst>
 </file>
@@ -244,7 +244,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +530,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,16 +576,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -594,16 +594,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -636,7 +636,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="2">
-        <f>IF(G3&lt;=F3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="2">
@@ -658,6 +658,7 @@
     </row>
     <row r="4" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -668,7 +669,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="2">
-        <f>A1*1.1</f>
+        <f>D3</f>
         <v>14.3</v>
       </c>
       <c r="E4" s="2">
@@ -682,7 +683,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&lt;=F4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -705,17 +706,18 @@
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>14.3</v>
       </c>
       <c r="E5" s="2">
@@ -733,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I38" si="5">I4</f>
+        <f t="shared" ref="I5:I38" si="7">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -752,17 +754,18 @@
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E6" s="2">
@@ -780,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -799,17 +802,18 @@
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E7" s="2">
@@ -827,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -846,17 +850,18 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E8" s="2">
@@ -874,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -893,17 +898,18 @@
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E9" s="2">
@@ -921,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -940,17 +946,18 @@
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E10" s="2">
@@ -968,7 +975,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -987,17 +994,18 @@
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E11" s="2">
@@ -1015,7 +1023,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1034,17 +1042,18 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E12" s="2">
@@ -1062,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1081,17 +1090,18 @@
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E13" s="2">
@@ -1109,7 +1119,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1128,17 +1138,18 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E14" s="2">
@@ -1156,7 +1167,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1175,17 +1186,18 @@
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E15" s="2">
@@ -1203,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1222,17 +1234,18 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E16" s="2">
@@ -1250,7 +1263,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1269,17 +1282,18 @@
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E17" s="2">
@@ -1297,7 +1311,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1316,17 +1330,18 @@
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E18" s="2">
@@ -1344,7 +1359,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1363,17 +1378,18 @@
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E19" s="2">
@@ -1391,7 +1407,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1410,17 +1426,18 @@
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E20" s="2">
@@ -1438,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1457,17 +1474,18 @@
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E21" s="2">
@@ -1485,7 +1503,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1504,17 +1522,18 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E22" s="2">
@@ -1532,7 +1551,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1551,17 +1570,18 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E23" s="2">
@@ -1579,7 +1599,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1598,17 +1618,18 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E24" s="2">
@@ -1626,7 +1647,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1645,17 +1666,18 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E25" s="2">
@@ -1673,7 +1695,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1692,17 +1714,18 @@
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E26" s="2">
@@ -1720,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1739,17 +1762,18 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f>A1*1.1</f>
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E27" s="2">
@@ -1767,7 +1791,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1786,17 +1810,18 @@
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>33</v>
+      <c r="B28" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
-      <c r="D28" s="3">
-        <f>A1*1.1</f>
+      <c r="D28" s="2">
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E28" s="2">
@@ -1814,7 +1839,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1828,17 +1853,18 @@
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>34</v>
+      <c r="B29" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
-      <c r="D29" s="3">
-        <f>A1*1.1</f>
+      <c r="D29" s="2">
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E29" s="2">
@@ -1856,7 +1882,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1870,17 +1896,18 @@
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>35</v>
+      <c r="B30" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
-      <c r="D30" s="3">
-        <f>A1*1.1</f>
+      <c r="D30" s="2">
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E30" s="2">
@@ -1898,7 +1925,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1912,17 +1939,18 @@
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
-      <c r="B31" s="3" t="s">
-        <v>36</v>
+      <c r="B31" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
-      <c r="D31" s="3">
-        <f>A1*1.1</f>
+      <c r="D31" s="2">
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E31" s="2">
@@ -1940,7 +1968,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1954,17 +1982,18 @@
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>37</v>
+      <c r="B32" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
-      <c r="D32" s="3">
-        <f>A1*1.1</f>
+      <c r="D32" s="2">
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E32" s="2">
@@ -1982,7 +2011,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -1996,17 +2025,18 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
-      <c r="B33" s="3" t="s">
-        <v>38</v>
+      <c r="B33" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="D33" s="3">
-        <f>A1*1.1</f>
+      <c r="D33" s="2">
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E33" s="2">
@@ -2024,7 +2054,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2038,17 +2068,18 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
-      <c r="B34" s="3" t="s">
-        <v>39</v>
+      <c r="B34" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
-      <c r="D34" s="3">
-        <f>A1*1.1</f>
+      <c r="D34" s="2">
+        <f t="shared" si="6"/>
         <v>14.3</v>
       </c>
       <c r="E34" s="2">
@@ -2066,7 +2097,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2080,16 +2111,17 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
-      <c r="B35" s="3" t="s">
-        <v>40</v>
+      <c r="B35" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <f>D10/2</f>
         <v>7.15</v>
       </c>
@@ -2108,7 +2140,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2122,16 +2154,17 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>41</v>
+      <c r="B36" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <f>D10/2</f>
         <v>7.15</v>
       </c>
@@ -2150,7 +2183,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2164,16 +2197,17 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
-      <c r="B37" s="3" t="s">
-        <v>42</v>
+      <c r="B37" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <f>D10/2</f>
         <v>7.15</v>
       </c>
@@ -2192,7 +2226,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2206,16 +2240,17 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>43</v>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <f>D10/2</f>
         <v>7.15</v>
       </c>
@@ -2234,7 +2269,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2247,43 +2282,89 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
       <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="5" t="str">
-        <f>INT(SUM(K3:K38))&amp;", руб."</f>
+        <f>FLOOR(SUM(K3:K38),1)&amp;", руб."</f>
         <v>33788, руб.</v>
       </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="2" t="str">
         <f>AVERAGE(C3:C38)&amp;", кв.м."</f>
         <v>61,25, кв.м.</v>
       </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="2" t="str">
         <f>MAX(H3:H38)&amp;", дней"</f>
         <v>27, дней</v>
       </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="3" t="str">
+      <c r="C43" s="2" t="str">
         <f>MAX(K3:K38)&amp;", руб."</f>
         <v>1009,35, руб.</v>
       </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE63E98-F938-4DB5-8D08-A5877D8D59CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C673BA8F-91BC-4843-B7D3-898050508DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,18 +48,6 @@
     <t>Пени за 1 день</t>
   </si>
   <si>
-    <t>Общая сумма</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Средняя площадь </t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки</t>
-  </si>
-  <si>
-    <t>Максимальная сумма</t>
-  </si>
-  <si>
     <t>Абдуллина</t>
   </si>
   <si>
@@ -153,12 +141,6 @@
     <t>Куропаткин 2</t>
   </si>
   <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Тариф, руб/кв.м</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -187,6 +169,24 @@
   </si>
   <si>
     <t>Кузин</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб/кв.м.</t>
   </si>
 </sst>
 </file>
@@ -530,20 +530,19 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M23" sqref="M23"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.44140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="30.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="14" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="17.77734375" style="3" customWidth="1"/>
+    <col min="8" max="9" width="17.77734375" style="3" customWidth="1"/>
     <col min="10" max="10" width="11.44140625" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" style="3" customWidth="1"/>
     <col min="12" max="14" width="28.77734375" style="3" customWidth="1"/>
@@ -576,16 +575,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -594,16 +593,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -616,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -662,7 +661,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -677,9 +676,11 @@
         <v>993.85</v>
       </c>
       <c r="F4" s="4">
+        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="4">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="2">
@@ -710,7 +711,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -725,9 +726,11 @@
         <v>986.7</v>
       </c>
       <c r="F5" s="4">
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I38" si="7">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -758,7 +761,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="5"/>
@@ -773,9 +776,11 @@
         <v>979.55000000000007</v>
       </c>
       <c r="F6" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -783,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -806,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="5"/>
@@ -821,9 +826,11 @@
         <v>972.40000000000009</v>
       </c>
       <c r="F7" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -831,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -854,7 +861,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="5"/>
@@ -869,9 +876,11 @@
         <v>965.25</v>
       </c>
       <c r="F8" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -879,7 +888,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -902,7 +911,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="5"/>
@@ -917,9 +926,11 @@
         <v>958.1</v>
       </c>
       <c r="F9" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -927,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -950,7 +961,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="5"/>
@@ -965,9 +976,11 @@
         <v>950.95</v>
       </c>
       <c r="F10" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -975,7 +988,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -998,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="5"/>
@@ -1013,9 +1026,11 @@
         <v>943.80000000000007</v>
       </c>
       <c r="F11" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1023,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1046,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="5"/>
@@ -1061,9 +1076,11 @@
         <v>936.65000000000009</v>
       </c>
       <c r="F12" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1071,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1094,7 +1111,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="5"/>
@@ -1109,9 +1126,11 @@
         <v>929.5</v>
       </c>
       <c r="F13" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1119,7 +1138,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1142,7 +1161,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="5"/>
@@ -1157,9 +1176,11 @@
         <v>922.35</v>
       </c>
       <c r="F14" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1167,7 +1188,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1190,7 +1211,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="5"/>
@@ -1205,9 +1226,11 @@
         <v>915.2</v>
       </c>
       <c r="F15" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1215,7 +1238,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1238,7 +1261,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="5"/>
@@ -1253,9 +1276,11 @@
         <v>908.05000000000007</v>
       </c>
       <c r="F16" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1263,7 +1288,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1286,7 +1311,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="5"/>
@@ -1301,9 +1326,11 @@
         <v>900.90000000000009</v>
       </c>
       <c r="F17" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1311,7 +1338,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1334,7 +1361,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="5"/>
@@ -1349,9 +1376,11 @@
         <v>893.75</v>
       </c>
       <c r="F18" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1359,7 +1388,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1382,7 +1411,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="5"/>
@@ -1397,9 +1426,11 @@
         <v>886.6</v>
       </c>
       <c r="F19" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1407,7 +1438,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1430,7 +1461,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="5"/>
@@ -1445,9 +1476,11 @@
         <v>879.45</v>
       </c>
       <c r="F20" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1455,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1478,7 +1511,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="5"/>
@@ -1493,9 +1526,11 @@
         <v>872.30000000000007</v>
       </c>
       <c r="F21" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1503,7 +1538,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1526,7 +1561,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="5"/>
@@ -1541,9 +1576,11 @@
         <v>865.15000000000009</v>
       </c>
       <c r="F22" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1551,7 +1588,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1574,7 +1611,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="5"/>
@@ -1589,9 +1626,11 @@
         <v>858</v>
       </c>
       <c r="F23" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1599,7 +1638,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1622,7 +1661,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="5"/>
@@ -1637,9 +1676,11 @@
         <v>850.85</v>
       </c>
       <c r="F24" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1647,7 +1688,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1670,7 +1711,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="5"/>
@@ -1685,9 +1726,11 @@
         <v>843.7</v>
       </c>
       <c r="F25" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1695,7 +1738,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1718,7 +1761,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="5"/>
@@ -1733,9 +1776,11 @@
         <v>836.55000000000007</v>
       </c>
       <c r="F26" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1743,7 +1788,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1766,7 +1811,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="5"/>
@@ -1781,9 +1826,11 @@
         <v>829.40000000000009</v>
       </c>
       <c r="F27" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1791,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1814,7 +1861,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="5"/>
@@ -1829,9 +1876,11 @@
         <v>822.25</v>
       </c>
       <c r="F28" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1839,7 +1888,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1857,7 +1906,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="5"/>
@@ -1872,9 +1921,11 @@
         <v>815.1</v>
       </c>
       <c r="F29" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1882,7 +1933,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1900,7 +1951,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="5"/>
@@ -1915,9 +1966,11 @@
         <v>807.95</v>
       </c>
       <c r="F30" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1925,7 +1978,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1943,7 +1996,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="5"/>
@@ -1958,9 +2011,11 @@
         <v>800.80000000000007</v>
       </c>
       <c r="F31" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -1968,7 +2023,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -1986,7 +2041,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="5"/>
@@ -2001,9 +2056,11 @@
         <v>793.65000000000009</v>
       </c>
       <c r="F32" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -2011,7 +2068,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2029,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="5"/>
@@ -2044,9 +2101,11 @@
         <v>786.5</v>
       </c>
       <c r="F33" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -2054,7 +2113,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2072,7 +2131,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="5"/>
@@ -2087,9 +2146,11 @@
         <v>779.35</v>
       </c>
       <c r="F34" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2097,7 +2158,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2115,14 +2176,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
-        <f>D10/2</f>
+        <f>D3/2</f>
         <v>7.15</v>
       </c>
       <c r="E35" s="2">
@@ -2130,9 +2191,11 @@
         <v>386.1</v>
       </c>
       <c r="F35" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2140,7 +2203,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2158,14 +2221,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
-        <f>D10/2</f>
+        <f>D3/2</f>
         <v>7.15</v>
       </c>
       <c r="E36" s="2">
@@ -2173,9 +2236,11 @@
         <v>382.52500000000003</v>
       </c>
       <c r="F36" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2183,7 +2248,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2201,14 +2266,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
-        <f>D10/2</f>
+        <f>D3/2</f>
         <v>7.15</v>
       </c>
       <c r="E37" s="2">
@@ -2216,9 +2281,11 @@
         <v>378.95000000000005</v>
       </c>
       <c r="F37" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2226,7 +2293,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2244,14 +2311,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
-        <f>D10/2</f>
+        <f>D3/2</f>
         <v>7.15</v>
       </c>
       <c r="E38" s="2">
@@ -2259,9 +2326,11 @@
         <v>375.375</v>
       </c>
       <c r="F38" s="4">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2269,7 +2338,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2297,11 +2366,11 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C40" s="5" t="str">
-        <f>FLOOR(SUM(K3:K38),1)&amp;", руб."</f>
-        <v>33788, руб.</v>
+        <v>45</v>
+      </c>
+      <c r="C40" s="5">
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>33788</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -2315,11 +2384,11 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" s="2" t="str">
-        <f>AVERAGE(C3:C38)&amp;", кв.м."</f>
-        <v>61,25, кв.м.</v>
+        <v>46</v>
+      </c>
+      <c r="C41" s="2">
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -2333,11 +2402,11 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C42" s="2" t="str">
-        <f>MAX(H3:H38)&amp;", дней"</f>
-        <v>27, дней</v>
+        <v>47</v>
+      </c>
+      <c r="C42" s="2">
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -2351,11 +2420,11 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="2" t="str">
-        <f>MAX(K3:K38)&amp;", руб."</f>
-        <v>1009,35, руб.</v>
+        <v>48</v>
+      </c>
+      <c r="C43" s="2">
+        <f>MAX(K3:K38)</f>
+        <v>1009.35</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C673BA8F-91BC-4843-B7D3-898050508DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161C835-6FE0-4CA1-A04A-5551D63E5907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -150,9 +150,6 @@
     <t>Итог, руб.</t>
   </si>
   <si>
-    <t xml:space="preserve">Фамилия квартирасъёмщика </t>
-  </si>
-  <si>
     <t>Штраф</t>
   </si>
   <si>
@@ -186,16 +183,16 @@
     <t>Площадь, кв.м.</t>
   </si>
   <si>
-    <t>Тариф, руб/кв.м.</t>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фамилия квартиросъёмщика </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -244,7 +241,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -575,13 +572,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>35</v>
@@ -599,7 +596,7 @@
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>37</v>
@@ -615,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -696,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
+        <f>E4+J4</f>
         <v>993.85</v>
       </c>
       <c r="L4" s="2"/>
@@ -707,18 +704,18 @@
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="4">A4+1</f>
+        <f t="shared" ref="A5:A38" si="3">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>14.3</v>
       </c>
       <c r="E5" s="2">
@@ -726,11 +723,11 @@
         <v>986.7</v>
       </c>
       <c r="F5" s="4">
-        <f t="shared" ref="F5:F38" si="7">F4</f>
+        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="4">
-        <f t="shared" ref="G5:G38" si="8">G4+1</f>
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="2">
@@ -738,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I38" si="9">I4</f>
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="2">
@@ -746,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="K4:K38" si="9">E5+J5</f>
         <v>986.7</v>
       </c>
       <c r="L5" s="2"/>
@@ -757,18 +754,18 @@
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E6" s="2">
@@ -776,11 +773,11 @@
         <v>979.55000000000007</v>
       </c>
       <c r="F6" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="2">
@@ -788,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="2">
@@ -796,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>979.55000000000007</v>
       </c>
       <c r="L6" s="2"/>
@@ -807,18 +804,18 @@
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E7" s="2">
@@ -826,11 +823,11 @@
         <v>972.40000000000009</v>
       </c>
       <c r="F7" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="2">
@@ -838,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="2">
@@ -846,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>972.40000000000009</v>
       </c>
       <c r="L7" s="2"/>
@@ -857,18 +854,18 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E8" s="2">
@@ -876,11 +873,11 @@
         <v>965.25</v>
       </c>
       <c r="F8" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="2">
@@ -888,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="2">
@@ -896,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>965.25</v>
       </c>
       <c r="L8" s="2"/>
@@ -907,18 +904,18 @@
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E9" s="2">
@@ -926,11 +923,11 @@
         <v>958.1</v>
       </c>
       <c r="F9" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="2">
@@ -938,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="2">
@@ -946,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="K9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>958.1</v>
       </c>
       <c r="L9" s="2"/>
@@ -957,18 +954,18 @@
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E10" s="2">
@@ -976,11 +973,11 @@
         <v>950.95</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="2">
@@ -988,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="2">
@@ -996,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>950.95</v>
       </c>
       <c r="L10" s="2"/>
@@ -1007,18 +1004,18 @@
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E11" s="2">
@@ -1026,11 +1023,11 @@
         <v>943.80000000000007</v>
       </c>
       <c r="F11" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="2">
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="2">
@@ -1046,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>943.80000000000007</v>
       </c>
       <c r="L11" s="2"/>
@@ -1057,18 +1054,18 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E12" s="2">
@@ -1076,11 +1073,11 @@
         <v>936.65000000000009</v>
       </c>
       <c r="F12" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="2">
@@ -1088,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="2">
@@ -1096,7 +1093,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>946.65000000000009</v>
       </c>
       <c r="L12" s="2"/>
@@ -1107,18 +1104,18 @@
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E13" s="2">
@@ -1126,11 +1123,11 @@
         <v>929.5</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="2">
@@ -1138,7 +1135,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="2">
@@ -1146,7 +1143,7 @@
         <v>20</v>
       </c>
       <c r="K13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>949.5</v>
       </c>
       <c r="L13" s="2"/>
@@ -1157,18 +1154,18 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E14" s="2">
@@ -1176,11 +1173,11 @@
         <v>922.35</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="2">
@@ -1188,7 +1185,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="2">
@@ -1196,7 +1193,7 @@
         <v>30</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>952.35</v>
       </c>
       <c r="L14" s="2"/>
@@ -1207,18 +1204,18 @@
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E15" s="2">
@@ -1226,11 +1223,11 @@
         <v>915.2</v>
       </c>
       <c r="F15" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="2">
@@ -1238,7 +1235,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="2">
@@ -1246,7 +1243,7 @@
         <v>40</v>
       </c>
       <c r="K15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>955.2</v>
       </c>
       <c r="L15" s="2"/>
@@ -1257,18 +1254,18 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E16" s="2">
@@ -1276,11 +1273,11 @@
         <v>908.05000000000007</v>
       </c>
       <c r="F16" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="2">
@@ -1288,7 +1285,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="2">
@@ -1296,7 +1293,7 @@
         <v>50</v>
       </c>
       <c r="K16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>958.05000000000007</v>
       </c>
       <c r="L16" s="2"/>
@@ -1307,18 +1304,18 @@
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E17" s="2">
@@ -1326,11 +1323,11 @@
         <v>900.90000000000009</v>
       </c>
       <c r="F17" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="2">
@@ -1338,7 +1335,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="2">
@@ -1346,7 +1343,7 @@
         <v>60</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>960.90000000000009</v>
       </c>
       <c r="L17" s="2"/>
@@ -1357,18 +1354,18 @@
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E18" s="2">
@@ -1376,11 +1373,11 @@
         <v>893.75</v>
       </c>
       <c r="F18" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="2">
@@ -1388,7 +1385,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="2">
@@ -1396,7 +1393,7 @@
         <v>70</v>
       </c>
       <c r="K18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>963.75</v>
       </c>
       <c r="L18" s="2"/>
@@ -1407,18 +1404,18 @@
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E19" s="2">
@@ -1426,11 +1423,11 @@
         <v>886.6</v>
       </c>
       <c r="F19" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="2">
@@ -1438,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="2">
@@ -1446,7 +1443,7 @@
         <v>80</v>
       </c>
       <c r="K19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>966.6</v>
       </c>
       <c r="L19" s="2"/>
@@ -1457,18 +1454,18 @@
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E20" s="2">
@@ -1476,11 +1473,11 @@
         <v>879.45</v>
       </c>
       <c r="F20" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="2">
@@ -1488,7 +1485,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="2">
@@ -1496,7 +1493,7 @@
         <v>90</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>969.45</v>
       </c>
       <c r="L20" s="2"/>
@@ -1507,18 +1504,18 @@
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E21" s="2">
@@ -1526,11 +1523,11 @@
         <v>872.30000000000007</v>
       </c>
       <c r="F21" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="2">
@@ -1538,7 +1535,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="2">
@@ -1546,7 +1543,7 @@
         <v>100</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>972.30000000000007</v>
       </c>
       <c r="L21" s="2"/>
@@ -1557,18 +1554,18 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E22" s="2">
@@ -1576,11 +1573,11 @@
         <v>865.15000000000009</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="2">
@@ -1588,7 +1585,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="2">
@@ -1596,7 +1593,7 @@
         <v>110</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>975.15000000000009</v>
       </c>
       <c r="L22" s="2"/>
@@ -1607,18 +1604,18 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E23" s="2">
@@ -1626,11 +1623,11 @@
         <v>858</v>
       </c>
       <c r="F23" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="2">
@@ -1638,7 +1635,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="2">
@@ -1646,7 +1643,7 @@
         <v>120</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>978</v>
       </c>
       <c r="L23" s="2"/>
@@ -1657,18 +1654,18 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E24" s="2">
@@ -1676,11 +1673,11 @@
         <v>850.85</v>
       </c>
       <c r="F24" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="2">
@@ -1688,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="2">
@@ -1696,7 +1693,7 @@
         <v>130</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>980.85</v>
       </c>
       <c r="L24" s="2"/>
@@ -1707,18 +1704,18 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E25" s="2">
@@ -1726,11 +1723,11 @@
         <v>843.7</v>
       </c>
       <c r="F25" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="2">
@@ -1738,7 +1735,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="2">
@@ -1746,7 +1743,7 @@
         <v>140</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>983.7</v>
       </c>
       <c r="L25" s="2"/>
@@ -1757,18 +1754,18 @@
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E26" s="2">
@@ -1776,11 +1773,11 @@
         <v>836.55000000000007</v>
       </c>
       <c r="F26" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="2">
@@ -1788,7 +1785,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="2">
@@ -1796,7 +1793,7 @@
         <v>150</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>986.55000000000007</v>
       </c>
       <c r="L26" s="2"/>
@@ -1807,18 +1804,18 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E27" s="2">
@@ -1826,11 +1823,11 @@
         <v>829.40000000000009</v>
       </c>
       <c r="F27" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="2">
@@ -1838,7 +1835,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="2">
@@ -1846,7 +1843,7 @@
         <v>160</v>
       </c>
       <c r="K27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>989.40000000000009</v>
       </c>
       <c r="L27" s="2"/>
@@ -1857,18 +1854,18 @@
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E28" s="2">
@@ -1876,11 +1873,11 @@
         <v>822.25</v>
       </c>
       <c r="F28" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="2">
@@ -1888,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="2">
@@ -1896,24 +1893,24 @@
         <v>170</v>
       </c>
       <c r="K28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>992.25</v>
       </c>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E29" s="2">
@@ -1921,11 +1918,11 @@
         <v>815.1</v>
       </c>
       <c r="F29" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="2">
@@ -1933,7 +1930,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="2">
@@ -1941,24 +1938,24 @@
         <v>180</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>995.1</v>
       </c>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E30" s="2">
@@ -1966,11 +1963,11 @@
         <v>807.95</v>
       </c>
       <c r="F30" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="2">
@@ -1978,7 +1975,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="2">
@@ -1986,24 +1983,24 @@
         <v>190</v>
       </c>
       <c r="K30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>997.95</v>
       </c>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E31" s="2">
@@ -2011,11 +2008,11 @@
         <v>800.80000000000007</v>
       </c>
       <c r="F31" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="2">
@@ -2023,7 +2020,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="2">
@@ -2031,24 +2028,24 @@
         <v>200</v>
       </c>
       <c r="K31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1000.8000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E32" s="2">
@@ -2056,11 +2053,11 @@
         <v>793.65000000000009</v>
       </c>
       <c r="F32" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="2">
@@ -2068,7 +2065,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="2">
@@ -2076,24 +2073,24 @@
         <v>210</v>
       </c>
       <c r="K32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1003.6500000000001</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E33" s="2">
@@ -2101,11 +2098,11 @@
         <v>786.5</v>
       </c>
       <c r="F33" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="2">
@@ -2113,7 +2110,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="2">
@@ -2121,24 +2118,24 @@
         <v>220</v>
       </c>
       <c r="K33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1006.5</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>14.3</v>
       </c>
       <c r="E34" s="2">
@@ -2146,11 +2143,11 @@
         <v>779.35</v>
       </c>
       <c r="F34" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="2">
@@ -2158,7 +2155,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="2">
@@ -2166,20 +2163,20 @@
         <v>230</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>1009.35</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2191,11 +2188,11 @@
         <v>386.1</v>
       </c>
       <c r="F35" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="2">
@@ -2203,7 +2200,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="2">
@@ -2211,20 +2208,20 @@
         <v>240</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>626.1</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
@@ -2236,11 +2233,11 @@
         <v>382.52500000000003</v>
       </c>
       <c r="F36" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="2">
@@ -2248,7 +2245,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="2">
@@ -2256,20 +2253,20 @@
         <v>250</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>632.52500000000009</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2281,11 +2278,11 @@
         <v>378.95000000000005</v>
       </c>
       <c r="F37" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="2">
@@ -2293,7 +2290,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="2">
@@ -2301,20 +2298,20 @@
         <v>260</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>638.95000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2326,11 +2323,11 @@
         <v>375.375</v>
       </c>
       <c r="F38" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G38" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="2">
@@ -2338,7 +2335,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="2">
@@ -2346,7 +2343,7 @@
         <v>270</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>645.375</v>
       </c>
     </row>
@@ -2366,7 +2363,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2384,7 +2381,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2402,7 +2399,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2420,7 +2417,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B161C835-6FE0-4CA1-A04A-5551D63E5907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED267690-24A1-4540-9924-246401EB1845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,9 +138,6 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
     <t>Сумма, руб.</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
     <t>Общая сумма, руб.</t>
   </si>
   <si>
-    <t>Средняя площадь, кв.м</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t xml:space="preserve">Фамилия квартиросъёмщика </t>
+  </si>
+  <si>
+    <t>Куропаткин 1</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -590,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K4:K38" si="9">E5+J5</f>
+        <f t="shared" ref="K5:K38" si="9">E5+J5</f>
         <v>986.7</v>
       </c>
       <c r="L5" s="2"/>
@@ -1208,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="4"/>
@@ -1608,7 +1608,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="4"/>
@@ -1808,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="4"/>
@@ -2184,7 +2184,7 @@
         <v>7.15</v>
       </c>
       <c r="E35" s="2">
-        <f t="shared" si="0"/>
+        <f>C35*D35</f>
         <v>386.1</v>
       </c>
       <c r="F35" s="4">
@@ -2263,7 +2263,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="4"/>
@@ -2308,7 +2308,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="4"/>
@@ -2363,7 +2363,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2381,7 +2381,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2399,7 +2399,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2417,7 +2417,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED267690-24A1-4540-9924-246401EB1845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3654C-82B0-44C1-8C72-E27FE4F58466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +669,7 @@
         <v>14.3</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f>C4*D4</f>
         <v>993.85</v>
       </c>
       <c r="F4" s="4">
@@ -681,7 +681,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="2">
-        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="0">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="2">
@@ -689,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="2">
-        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="1">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="2">
@@ -704,22 +704,22 @@
     </row>
     <row r="5" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <f t="shared" ref="A5:A38" si="3">A4+1</f>
+        <f t="shared" ref="A5:A38" si="2">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="2">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:D34" si="5">D4</f>
+        <f t="shared" ref="D5:E34" si="4">D4</f>
         <v>14.3</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E4:E38" si="5">C5*D5</f>
         <v>986.7</v>
       </c>
       <c r="F5" s="4">
@@ -731,7 +731,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I5" s="2">
@@ -739,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="J5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K5" s="2">
@@ -754,22 +754,22 @@
     </row>
     <row r="6" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>979.55000000000007</v>
       </c>
       <c r="F6" s="4">
@@ -781,7 +781,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I6" s="2">
@@ -789,7 +789,7 @@
         <v>10</v>
       </c>
       <c r="J6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K6" s="2">
@@ -804,22 +804,22 @@
     </row>
     <row r="7" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>68</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>972.40000000000009</v>
       </c>
       <c r="F7" s="4">
@@ -831,7 +831,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I7" s="2">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="J7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K7" s="2">
@@ -854,22 +854,22 @@
     </row>
     <row r="8" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>965.25</v>
       </c>
       <c r="F8" s="4">
@@ -881,7 +881,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I8" s="2">
@@ -889,7 +889,7 @@
         <v>10</v>
       </c>
       <c r="J8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -904,22 +904,22 @@
     </row>
     <row r="9" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>67</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>958.1</v>
       </c>
       <c r="F9" s="4">
@@ -931,7 +931,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I9" s="2">
@@ -939,7 +939,7 @@
         <v>10</v>
       </c>
       <c r="J9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -954,22 +954,22 @@
     </row>
     <row r="10" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>950.95</v>
       </c>
       <c r="F10" s="4">
@@ -981,7 +981,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I10" s="2">
@@ -989,7 +989,7 @@
         <v>10</v>
       </c>
       <c r="J10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -1004,22 +1004,22 @@
     </row>
     <row r="11" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>66</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>943.80000000000007</v>
       </c>
       <c r="F11" s="4">
@@ -1031,7 +1031,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="2">
@@ -1039,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="J11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -1054,22 +1054,22 @@
     </row>
     <row r="12" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>936.65000000000009</v>
       </c>
       <c r="F12" s="4">
@@ -1081,7 +1081,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="I12" s="2">
@@ -1089,7 +1089,7 @@
         <v>10</v>
       </c>
       <c r="J12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="K12" s="2">
@@ -1104,22 +1104,22 @@
     </row>
     <row r="13" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>65</v>
       </c>
       <c r="D13" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>929.5</v>
       </c>
       <c r="F13" s="4">
@@ -1131,7 +1131,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="I13" s="2">
@@ -1139,7 +1139,7 @@
         <v>10</v>
       </c>
       <c r="J13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="K13" s="2">
@@ -1154,22 +1154,22 @@
     </row>
     <row r="14" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C14" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>922.35</v>
       </c>
       <c r="F14" s="4">
@@ -1181,7 +1181,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="I14" s="2">
@@ -1189,7 +1189,7 @@
         <v>10</v>
       </c>
       <c r="J14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="K14" s="2">
@@ -1204,22 +1204,22 @@
     </row>
     <row r="15" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>39</v>
+      <c r="B15" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="C15" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>64</v>
       </c>
       <c r="D15" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>915.2</v>
       </c>
       <c r="F15" s="4">
@@ -1231,7 +1231,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="I15" s="2">
@@ -1239,7 +1239,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="K15" s="2">
@@ -1254,22 +1254,22 @@
     </row>
     <row r="16" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>908.05000000000007</v>
       </c>
       <c r="F16" s="4">
@@ -1281,7 +1281,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="I16" s="2">
@@ -1289,7 +1289,7 @@
         <v>10</v>
       </c>
       <c r="J16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K16" s="2">
@@ -1304,22 +1304,22 @@
     </row>
     <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>63</v>
       </c>
       <c r="D17" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>900.90000000000009</v>
       </c>
       <c r="F17" s="4">
@@ -1331,7 +1331,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="I17" s="2">
@@ -1339,7 +1339,7 @@
         <v>10</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="K17" s="2">
@@ -1354,22 +1354,22 @@
     </row>
     <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>893.75</v>
       </c>
       <c r="F18" s="4">
@@ -1381,7 +1381,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="I18" s="2">
@@ -1389,7 +1389,7 @@
         <v>10</v>
       </c>
       <c r="J18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="K18" s="2">
@@ -1404,22 +1404,22 @@
     </row>
     <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>62</v>
       </c>
       <c r="D19" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>886.6</v>
       </c>
       <c r="F19" s="4">
@@ -1431,7 +1431,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="I19" s="2">
@@ -1439,7 +1439,7 @@
         <v>10</v>
       </c>
       <c r="J19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="K19" s="2">
@@ -1454,22 +1454,22 @@
     </row>
     <row r="20" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>879.45</v>
       </c>
       <c r="F20" s="4">
@@ -1481,7 +1481,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="I20" s="2">
@@ -1489,7 +1489,7 @@
         <v>10</v>
       </c>
       <c r="J20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="K20" s="2">
@@ -1504,22 +1504,22 @@
     </row>
     <row r="21" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>61</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>872.30000000000007</v>
       </c>
       <c r="F21" s="4">
@@ -1531,7 +1531,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="I21" s="2">
@@ -1539,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="K21" s="2">
@@ -1554,22 +1554,22 @@
     </row>
     <row r="22" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>865.15000000000009</v>
       </c>
       <c r="F22" s="4">
@@ -1581,7 +1581,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="I22" s="2">
@@ -1589,7 +1589,7 @@
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="K22" s="2">
@@ -1604,22 +1604,22 @@
     </row>
     <row r="23" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="C23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>858</v>
       </c>
       <c r="F23" s="4">
@@ -1631,7 +1631,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="I23" s="2">
@@ -1639,7 +1639,7 @@
         <v>10</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="K23" s="2">
@@ -1654,22 +1654,22 @@
     </row>
     <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>850.85</v>
       </c>
       <c r="F24" s="4">
@@ -1681,7 +1681,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="I24" s="2">
@@ -1689,7 +1689,7 @@
         <v>10</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="K24" s="2">
@@ -1704,22 +1704,22 @@
     </row>
     <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>59</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>843.7</v>
       </c>
       <c r="F25" s="4">
@@ -1731,7 +1731,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="I25" s="2">
@@ -1739,7 +1739,7 @@
         <v>10</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="K25" s="2">
@@ -1754,22 +1754,22 @@
     </row>
     <row r="26" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>836.55000000000007</v>
       </c>
       <c r="F26" s="4">
@@ -1781,7 +1781,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="I26" s="2">
@@ -1789,7 +1789,7 @@
         <v>10</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K26" s="2">
@@ -1804,22 +1804,22 @@
     </row>
     <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>58</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E27" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>829.40000000000009</v>
       </c>
       <c r="F27" s="4">
@@ -1831,7 +1831,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="I27" s="2">
@@ -1839,7 +1839,7 @@
         <v>10</v>
       </c>
       <c r="J27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="K27" s="2">
@@ -1854,22 +1854,22 @@
     </row>
     <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C28" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E28" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>822.25</v>
       </c>
       <c r="F28" s="4">
@@ -1881,7 +1881,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="I28" s="2">
@@ -1889,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="J28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="K28" s="2">
@@ -1899,22 +1899,22 @@
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>57</v>
       </c>
       <c r="D29" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>815.1</v>
       </c>
       <c r="F29" s="4">
@@ -1926,7 +1926,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="I29" s="2">
@@ -1934,7 +1934,7 @@
         <v>10</v>
       </c>
       <c r="J29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="K29" s="2">
@@ -1944,22 +1944,22 @@
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E30" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>807.95</v>
       </c>
       <c r="F30" s="4">
@@ -1971,7 +1971,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="I30" s="2">
@@ -1979,7 +1979,7 @@
         <v>10</v>
       </c>
       <c r="J30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>190</v>
       </c>
       <c r="K30" s="2">
@@ -1989,22 +1989,22 @@
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>56</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E31" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>800.80000000000007</v>
       </c>
       <c r="F31" s="4">
@@ -2016,7 +2016,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="I31" s="2">
@@ -2024,7 +2024,7 @@
         <v>10</v>
       </c>
       <c r="J31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>200</v>
       </c>
       <c r="K31" s="2">
@@ -2034,22 +2034,22 @@
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C32" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E32" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>793.65000000000009</v>
       </c>
       <c r="F32" s="4">
@@ -2061,7 +2061,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="I32" s="2">
@@ -2069,7 +2069,7 @@
         <v>10</v>
       </c>
       <c r="J32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>210</v>
       </c>
       <c r="K32" s="2">
@@ -2079,22 +2079,22 @@
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C33" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>55</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E33" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>786.5</v>
       </c>
       <c r="F33" s="4">
@@ -2106,7 +2106,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="I33" s="2">
@@ -2114,7 +2114,7 @@
         <v>10</v>
       </c>
       <c r="J33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>220</v>
       </c>
       <c r="K33" s="2">
@@ -2124,22 +2124,22 @@
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C34" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="2">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14.3</v>
       </c>
       <c r="E34" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>779.35</v>
       </c>
       <c r="F34" s="4">
@@ -2151,7 +2151,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="I34" s="2">
@@ -2159,7 +2159,7 @@
         <v>10</v>
       </c>
       <c r="J34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>230</v>
       </c>
       <c r="K34" s="2">
@@ -2169,14 +2169,14 @@
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C35" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>54</v>
       </c>
       <c r="D35" s="2">
@@ -2196,7 +2196,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="I35" s="2">
@@ -2204,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="J35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
       <c r="K35" s="2">
@@ -2214,14 +2214,14 @@
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="2">
@@ -2229,7 +2229,7 @@
         <v>7.15</v>
       </c>
       <c r="E36" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>382.52500000000003</v>
       </c>
       <c r="F36" s="4">
@@ -2241,7 +2241,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="I36" s="2">
@@ -2249,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="J36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>250</v>
       </c>
       <c r="K36" s="2">
@@ -2259,14 +2259,14 @@
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C37" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>53</v>
       </c>
       <c r="D37" s="2">
@@ -2274,7 +2274,7 @@
         <v>7.15</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>378.95000000000005</v>
       </c>
       <c r="F37" s="4">
@@ -2286,7 +2286,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="I37" s="2">
@@ -2294,7 +2294,7 @@
         <v>10</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="K37" s="2">
@@ -2304,14 +2304,14 @@
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C38" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="2">
@@ -2319,7 +2319,7 @@
         <v>7.15</v>
       </c>
       <c r="E38" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>375.375</v>
       </c>
       <c r="F38" s="4">
@@ -2331,7 +2331,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="I38" s="2">
@@ -2339,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="J38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>270</v>
       </c>
       <c r="K38" s="2">

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE3654C-82B0-44C1-8C72-E27FE4F58466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FBA598-7C5D-4867-907A-C4E3D8EF5139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -102,9 +102,6 @@
     <t>Семагин</t>
   </si>
   <si>
-    <t>Таухутдинова</t>
-  </si>
-  <si>
     <t>Фаляхутдинова</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Итог, руб.</t>
-  </si>
-  <si>
     <t>Штраф</t>
   </si>
   <si>
@@ -187,6 +181,12 @@
   </si>
   <si>
     <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Таухутдинов</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -590,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -1208,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1258,7 +1258,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1658,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1708,7 +1708,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1758,7 +1758,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="3"/>
@@ -1808,7 +1808,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="3"/>
@@ -1858,7 +1858,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -1903,7 +1903,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="3"/>
@@ -1948,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="3"/>
@@ -1993,7 +1993,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="3"/>
@@ -2038,7 +2038,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="3"/>
@@ -2083,7 +2083,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="3"/>
@@ -2128,7 +2128,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="3"/>
@@ -2173,7 +2173,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="3"/>
@@ -2218,7 +2218,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="3"/>
@@ -2263,7 +2263,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="3"/>
@@ -2308,7 +2308,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2363,7 +2363,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2381,7 +2381,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2399,7 +2399,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2417,7 +2417,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6FBA598-7C5D-4867-907A-C4E3D8EF5139}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA7774-FB66-4420-ACB2-56396ED1A90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,12 +135,6 @@
     <t>Шаймарданова</t>
   </si>
   <si>
-    <t>Сумма, руб.</t>
-  </si>
-  <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
     <t>Штраф</t>
   </si>
   <si>
@@ -168,12 +162,6 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Фамилия квартиросъёмщика </t>
   </si>
   <si>
@@ -183,10 +171,22 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Итого, руб.</t>
-  </si>
-  <si>
     <t>Таухутдинов</t>
+  </si>
+  <si>
+    <t>Площадь</t>
+  </si>
+  <si>
+    <t>Тариф</t>
+  </si>
+  <si>
+    <t>Сумма</t>
+  </si>
+  <si>
+    <t>Просрочка</t>
+  </si>
+  <si>
+    <t>Итого</t>
   </si>
 </sst>
 </file>
@@ -526,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,16 +572,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>48</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -590,16 +590,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -612,7 +612,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -715,11 +715,11 @@
         <v>69</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" ref="D5:E34" si="4">D4</f>
+        <f t="shared" ref="D5:D34" si="4">D4</f>
         <v>14.3</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" ref="E4:E38" si="5">C5*D5</f>
+        <f t="shared" ref="E5:E38" si="5">C5*D5</f>
         <v>986.7</v>
       </c>
       <c r="F5" s="4">
@@ -1208,7 +1208,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1258,7 +1258,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1658,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1708,7 +1708,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1858,7 +1858,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -2308,7 +2308,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2363,7 +2363,7 @@
     <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2381,7 +2381,7 @@
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2399,7 +2399,7 @@
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2417,7 +2417,7 @@
     <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFBA7774-FB66-4420-ACB2-56396ED1A90D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC627A-1F35-4CA3-BACF-8DCEDB780079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t xml:space="preserve">№ квартиры </t>
   </si>
@@ -135,12 +135,15 @@
     <t>Шаймарданова</t>
   </si>
   <si>
+    <t>Сумма, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
     <t>Штраф</t>
   </si>
   <si>
-    <t>Абделазиз</t>
-  </si>
-  <si>
     <t xml:space="preserve">Мохамед </t>
   </si>
   <si>
@@ -162,6 +165,12 @@
     <t>Максимальная сумма, руб.</t>
   </si>
   <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
     <t xml:space="preserve">Фамилия квартиросъёмщика </t>
   </si>
   <si>
@@ -171,22 +180,10 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
     <t>Таухутдинов</t>
-  </si>
-  <si>
-    <t>Площадь</t>
-  </si>
-  <si>
-    <t>Тариф</t>
-  </si>
-  <si>
-    <t>Сумма</t>
-  </si>
-  <si>
-    <t>Просрочка</t>
-  </si>
-  <si>
-    <t>Итого</t>
   </si>
 </sst>
 </file>
@@ -527,7 +524,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -572,16 +569,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -590,16 +587,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -612,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -1207,8 +1204,8 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>38</v>
+      <c r="B15" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1258,7 +1255,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1658,7 +1655,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1708,7 +1705,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1858,7 +1855,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -1896,6 +1893,7 @@
         <f t="shared" si="9"/>
         <v>992.25</v>
       </c>
+      <c r="L28" s="2"/>
     </row>
     <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -1941,6 +1939,7 @@
         <f t="shared" si="9"/>
         <v>995.1</v>
       </c>
+      <c r="L29" s="2"/>
     </row>
     <row r="30" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -1986,6 +1985,7 @@
         <f t="shared" si="9"/>
         <v>997.95</v>
       </c>
+      <c r="L30" s="2"/>
     </row>
     <row r="31" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -2031,6 +2031,7 @@
         <f t="shared" si="9"/>
         <v>1000.8000000000001</v>
       </c>
+      <c r="L31" s="2"/>
     </row>
     <row r="32" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -2076,8 +2077,9 @@
         <f t="shared" si="9"/>
         <v>1003.6500000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <f t="shared" si="2"/>
         <v>31</v>
@@ -2121,8 +2123,9 @@
         <f t="shared" si="9"/>
         <v>1006.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -2166,8 +2169,9 @@
         <f t="shared" si="9"/>
         <v>1009.35</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L34" s="2"/>
+    </row>
+    <row r="35" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -2211,8 +2215,9 @@
         <f t="shared" si="9"/>
         <v>626.1</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -2256,8 +2261,9 @@
         <f t="shared" si="9"/>
         <v>632.52500000000009</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L36" s="2"/>
+    </row>
+    <row r="37" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -2301,14 +2307,15 @@
         <f t="shared" si="9"/>
         <v>638.95000000000005</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2346,8 +2353,9 @@
         <f t="shared" si="9"/>
         <v>645.375</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2359,11 +2367,12 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2377,11 +2386,12 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2395,11 +2405,12 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2413,11 +2424,12 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>
@@ -2431,20 +2443,32 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="2"/>
       <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
     </row>
-    <row r="46" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
     </row>
-    <row r="47" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
     </row>
-    <row r="48" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0EC627A-1F35-4CA3-BACF-8DCEDB780079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCF6D3-B640-4529-A13A-54486FEEF455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9684" yWindow="444" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t xml:space="preserve">Дата оплаты </t>
   </si>
   <si>
-    <t>Пени за 1 день</t>
-  </si>
-  <si>
     <t>Абдуллина</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t>Штраф</t>
-  </si>
-  <si>
     <t xml:space="preserve">Мохамед </t>
   </si>
   <si>
@@ -184,6 +178,12 @@
   </si>
   <si>
     <t>Таухутдинов</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Штраф, руб.</t>
   </si>
 </sst>
 </file>
@@ -523,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -536,8 +536,9 @@
     <col min="5" max="5" width="13.21875" style="3" customWidth="1"/>
     <col min="6" max="6" width="17.21875" style="3" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="3" customWidth="1"/>
-    <col min="8" max="9" width="17.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="20.109375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" style="3" customWidth="1"/>
     <col min="11" max="11" width="16.33203125" style="3" customWidth="1"/>
     <col min="12" max="14" width="28.77734375" style="3" customWidth="1"/>
     <col min="15" max="18" width="28.77734375" customWidth="1"/>
@@ -569,16 +570,16 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>1</v>
@@ -587,16 +588,16 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -609,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -655,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -705,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
@@ -755,7 +756,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="3"/>
@@ -805,7 +806,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="3"/>
@@ -855,7 +856,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="3"/>
@@ -905,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="3"/>
@@ -955,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="3"/>
@@ -1005,7 +1006,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="3"/>
@@ -1055,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="3"/>
@@ -1105,7 +1106,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="3"/>
@@ -1155,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="3"/>
@@ -1205,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1255,7 +1256,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1305,7 +1306,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="3"/>
@@ -1355,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="3"/>
@@ -1405,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="3"/>
@@ -1455,7 +1456,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="3"/>
@@ -1505,7 +1506,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="3"/>
@@ -1555,7 +1556,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="3"/>
@@ -1605,7 +1606,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="3"/>
@@ -1655,7 +1656,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1705,7 +1706,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1755,7 +1756,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="3"/>
@@ -1805,7 +1806,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="3"/>
@@ -1855,7 +1856,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -1901,7 +1902,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="3"/>
@@ -1947,7 +1948,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="3"/>
@@ -1993,7 +1994,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="3"/>
@@ -2039,7 +2040,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="3"/>
@@ -2085,7 +2086,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="3"/>
@@ -2131,7 +2132,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="3"/>
@@ -2177,7 +2178,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="3"/>
@@ -2223,7 +2224,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="3"/>
@@ -2269,7 +2270,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="3"/>
@@ -2315,7 +2316,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2372,7 +2373,7 @@
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2391,7 +2392,7 @@
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2410,7 +2411,7 @@
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2429,7 +2430,7 @@
     <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186AA7A8-0DDE-4F4E-A4D2-863D054FA106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F523829-71A0-4FA3-8AFE-6C8C0AAD92FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{71828DA1-5C7C-4834-962B-F715EF2C64D9}"/>
   </bookViews>
@@ -33,47 +33,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартирасъемщика</t>
-  </si>
-  <si>
     <t>Авад</t>
   </si>
   <si>
     <t>Ахтарьянов</t>
   </si>
   <si>
-    <t xml:space="preserve">Габидуллин  </t>
-  </si>
-  <si>
     <t>Гуссамов</t>
   </si>
   <si>
-    <t xml:space="preserve">Ефарова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измайлов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мирзагитова </t>
-  </si>
-  <si>
     <t>Мохамед</t>
   </si>
   <si>
-    <t xml:space="preserve">Мохамед </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нуруллина </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пермяков </t>
-  </si>
-  <si>
     <t>Ратушин</t>
   </si>
   <si>
@@ -186,6 +162,27 @@
   </si>
   <si>
     <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъемщика</t>
+  </si>
+  <si>
+    <t>Мирзагитова</t>
+  </si>
+  <si>
+    <t>Габидуллин</t>
+  </si>
+  <si>
+    <t>Ефарова</t>
+  </si>
+  <si>
+    <t>Измайлов</t>
+  </si>
+  <si>
+    <t>Нуруллина</t>
+  </si>
+  <si>
+    <t>Пермяков</t>
   </si>
 </sst>
 </file>
@@ -601,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB58AEA-18DD-44D0-99D0-836DF11FB806}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -630,34 +627,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -665,7 +662,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" s="4">
         <v>70</v>
@@ -706,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="9">
         <f>C3-0.5</f>
@@ -751,7 +748,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="C5" s="9">
         <f>C4-0.5</f>
@@ -796,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" s="9">
         <f t="shared" ref="C6:C38" si="9">C5-0.5</f>
@@ -841,7 +838,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9">
         <f t="shared" si="9"/>
@@ -886,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="C8" s="9">
         <f t="shared" si="9"/>
@@ -931,7 +928,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="C9" s="9">
         <f t="shared" si="9"/>
@@ -976,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C10" s="9">
         <f t="shared" si="9"/>
@@ -1021,7 +1018,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C11" s="9">
         <f t="shared" si="9"/>
@@ -1066,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9">
         <f t="shared" si="9"/>
@@ -1111,7 +1108,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9">
         <f t="shared" si="9"/>
@@ -1156,7 +1153,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C14" s="9">
         <f t="shared" si="9"/>
@@ -1201,7 +1198,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C15" s="9">
         <f t="shared" si="9"/>
@@ -1246,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="C16" s="9">
         <f t="shared" si="9"/>
@@ -1291,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="C17" s="9">
         <f t="shared" si="9"/>
@@ -1336,7 +1333,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C18" s="9">
         <f t="shared" si="9"/>
@@ -1381,7 +1378,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C19" s="9">
         <f t="shared" si="9"/>
@@ -1426,7 +1423,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C20" s="9">
         <f t="shared" si="9"/>
@@ -1471,7 +1468,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C21" s="9">
         <f t="shared" si="9"/>
@@ -1516,7 +1513,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C22" s="9">
         <f t="shared" si="9"/>
@@ -1561,7 +1558,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C23" s="9">
         <f t="shared" si="9"/>
@@ -1606,7 +1603,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C24" s="9">
         <f t="shared" si="9"/>
@@ -1651,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="9"/>
@@ -1696,7 +1693,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C26" s="9">
         <f t="shared" si="9"/>
@@ -1741,7 +1738,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C27" s="9">
         <f t="shared" si="9"/>
@@ -1786,7 +1783,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C28" s="9">
         <f t="shared" si="9"/>
@@ -1831,7 +1828,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C29" s="9">
         <f t="shared" si="9"/>
@@ -1876,7 +1873,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C30" s="9">
         <f t="shared" si="9"/>
@@ -1921,7 +1918,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C31" s="9">
         <f t="shared" si="9"/>
@@ -1966,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C32" s="9">
         <f t="shared" si="9"/>
@@ -2011,7 +2008,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C33" s="9">
         <f t="shared" si="9"/>
@@ -2056,7 +2053,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C34" s="9">
         <f t="shared" si="9"/>
@@ -2101,14 +2098,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C35" s="9">
         <f t="shared" si="9"/>
         <v>54</v>
       </c>
       <c r="D35" s="8">
-        <f>$A$1 * 1.1 / 2</f>
+        <f>$A$1*1.1 / 2</f>
         <v>47.85</v>
       </c>
       <c r="E35" s="8">
@@ -2146,14 +2143,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C36" s="9">
         <f t="shared" si="9"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="8">
-        <f t="shared" ref="D36:D38" si="10">$A$1 * 1.1 / 2</f>
+        <f>$A$1*1.1 / 2</f>
         <v>47.85</v>
       </c>
       <c r="E36" s="8">
@@ -2191,14 +2188,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C37" s="9">
         <f t="shared" si="9"/>
         <v>53</v>
       </c>
       <c r="D37" s="8">
-        <f t="shared" si="10"/>
+        <f>$A$1*1.1 / 2</f>
         <v>47.85</v>
       </c>
       <c r="E37" s="8">
@@ -2236,14 +2233,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C38" s="9">
         <f t="shared" si="9"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="10"/>
+        <f>$A$1*1.1 / 2</f>
         <v>47.85</v>
       </c>
       <c r="E38" s="8">
@@ -2277,7 +2274,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B40" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C40" s="11">
         <f>SUM(K3:K38)</f>
@@ -2286,7 +2283,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B41" s="2" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C41" s="11">
         <f>AVERAGE(C3:C38)</f>
@@ -2295,7 +2292,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B42" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2304,7 +2301,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C43" s="11">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8BCF6D3-B640-4529-A13A-54486FEEF455}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C2804-0E93-4314-9DE6-6F606D9554B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9684" yWindow="444" windowWidth="17280" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t xml:space="preserve">№ квартиры </t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Боуйе </t>
   </si>
 </sst>
 </file>
@@ -523,8 +526,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1256,7 +1259,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{742C2804-0E93-4314-9DE6-6F606D9554B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230CC72E-95E8-46FE-AA50-09FFBEABF0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -138,12 +138,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t xml:space="preserve">Мохамед </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хабк </t>
-  </si>
-  <si>
     <t>Семёнов</t>
   </si>
   <si>
@@ -186,13 +180,22 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t xml:space="preserve">Боуйе </t>
+    <t>Куропаткин 2</t>
+  </si>
+  <si>
+    <t>Куропаткин 3</t>
+  </si>
+  <si>
+    <t>Куропаткин 4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -241,7 +244,7 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -526,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,13 +576,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>32</v>
@@ -594,13 +597,13 @@
         <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -613,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -659,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -709,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
@@ -759,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="3"/>
@@ -809,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="3"/>
@@ -859,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="3"/>
@@ -909,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="3"/>
@@ -959,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="3"/>
@@ -1009,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="3"/>
@@ -1059,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="3"/>
@@ -1109,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="3"/>
@@ -1159,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="3"/>
@@ -1209,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1259,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1309,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="3"/>
@@ -1359,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="3"/>
@@ -1409,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="3"/>
@@ -1459,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="3"/>
@@ -1509,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="3"/>
@@ -1559,7 +1562,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="3"/>
@@ -1609,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="3"/>
@@ -1659,7 +1662,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1709,7 +1712,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1759,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="3"/>
@@ -1809,7 +1812,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="3"/>
@@ -1859,7 +1862,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -1905,7 +1908,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="3"/>
@@ -1951,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="3"/>
@@ -1997,7 +2000,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="3"/>
@@ -2043,7 +2046,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="3"/>
@@ -2089,7 +2092,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="3"/>
@@ -2135,7 +2138,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="3"/>
@@ -2181,7 +2184,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="3"/>
@@ -2227,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="3"/>
@@ -2273,7 +2276,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="3"/>
@@ -2319,7 +2322,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2376,7 +2379,7 @@
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2395,7 +2398,7 @@
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2414,7 +2417,7 @@
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2433,7 +2436,7 @@
     <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230CC72E-95E8-46FE-AA50-09FFBEABF0B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5ED839-7D8D-4F61-8729-EA9D698C69B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t xml:space="preserve">№ квартиры </t>
-  </si>
-  <si>
     <t>Срок оплаты</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
+    <t xml:space="preserve">Мохамед </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Хабк </t>
+  </si>
+  <si>
     <t>Семёнов</t>
   </si>
   <si>
@@ -159,9 +162,6 @@
     <t>Тариф, руб./кв.м.</t>
   </si>
   <si>
-    <t xml:space="preserve">Фамилия квартиросъёмщика </t>
-  </si>
-  <si>
     <t>Куропаткин 1</t>
   </si>
   <si>
@@ -180,13 +180,13 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Куропаткин 2</t>
-  </si>
-  <si>
-    <t>Куропаткин 3</t>
-  </si>
-  <si>
-    <t>Куропаткин 4</t>
+    <t xml:space="preserve">Боуйе </t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>№ квартиры</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,28 +573,28 @@
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>46</v>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="3"/>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="3"/>
@@ -862,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="3"/>
@@ -912,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="3"/>
@@ -962,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="3"/>
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="3"/>
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="3"/>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="3"/>
@@ -1162,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="3"/>
@@ -1212,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1312,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="3"/>
@@ -1362,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="3"/>
@@ -1412,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="3"/>
@@ -1462,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="3"/>
@@ -1512,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="3"/>
@@ -1562,7 +1562,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="3"/>
@@ -1612,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="3"/>
@@ -1662,7 +1662,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1712,7 +1712,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="3"/>
@@ -1812,7 +1812,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="3"/>
@@ -1862,7 +1862,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -1908,7 +1908,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="3"/>
@@ -1954,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="3"/>
@@ -2000,7 +2000,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="3"/>
@@ -2046,7 +2046,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="3"/>
@@ -2092,7 +2092,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="3"/>
@@ -2138,7 +2138,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="3"/>
@@ -2184,7 +2184,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="3"/>
@@ -2230,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="3"/>
@@ -2276,7 +2276,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="3"/>
@@ -2322,7 +2322,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2379,7 +2379,7 @@
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2417,7 +2417,7 @@
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2436,7 +2436,7 @@
     <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5ED839-7D8D-4F61-8729-EA9D698C69B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8874A5-A323-4509-A072-19EFDB71C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
     <t>Срок оплаты</t>
   </si>
   <si>
-    <t xml:space="preserve">Дата оплаты </t>
-  </si>
-  <si>
     <t>Абдуллина</t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Дата оплаты</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,37 +573,37 @@
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="3"/>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="3"/>
@@ -862,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="3"/>
@@ -912,7 +912,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" si="3"/>
@@ -962,7 +962,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" s="2">
         <f t="shared" si="3"/>
@@ -1012,7 +1012,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2">
         <f t="shared" si="3"/>
@@ -1062,7 +1062,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" si="3"/>
@@ -1112,7 +1112,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <f t="shared" si="3"/>
@@ -1162,7 +1162,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="3"/>
@@ -1212,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1312,7 +1312,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2">
         <f t="shared" si="3"/>
@@ -1362,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2">
         <f t="shared" si="3"/>
@@ -1412,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2">
         <f t="shared" si="3"/>
@@ -1462,7 +1462,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2">
         <f t="shared" si="3"/>
@@ -1512,7 +1512,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" si="3"/>
@@ -1562,7 +1562,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="3"/>
@@ -1612,7 +1612,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="3"/>
@@ -1662,7 +1662,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1712,7 +1712,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1762,7 +1762,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" si="3"/>
@@ -1812,7 +1812,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="3"/>
@@ -1862,7 +1862,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -1908,7 +1908,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2">
         <f t="shared" si="3"/>
@@ -1954,7 +1954,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="3"/>
@@ -2000,7 +2000,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="3"/>
@@ -2046,7 +2046,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="3"/>
@@ -2092,7 +2092,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="3"/>
@@ -2138,7 +2138,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="3"/>
@@ -2184,7 +2184,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="3"/>
@@ -2230,7 +2230,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="3"/>
@@ -2276,7 +2276,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="3"/>
@@ -2322,7 +2322,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2379,7 +2379,7 @@
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2398,7 +2398,7 @@
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2417,7 +2417,7 @@
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2436,7 +2436,7 @@
     <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8874A5-A323-4509-A072-19EFDB71C316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13461FC-F689-4DA6-873E-A592E5F61EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t xml:space="preserve">Мохамед </t>
-  </si>
-  <si>
     <t xml:space="preserve">Хабк </t>
   </si>
   <si>
@@ -187,6 +184,9 @@
   </si>
   <si>
     <t>Дата оплаты</t>
+  </si>
+  <si>
+    <t>Мохамед</t>
   </si>
 </sst>
 </file>
@@ -529,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,16 +573,16 @@
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -591,19 +591,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="K2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -616,7 +616,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -662,7 +662,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -712,7 +712,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
@@ -762,7 +762,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="3"/>
@@ -812,7 +812,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="3"/>
@@ -862,7 +862,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="3"/>
@@ -1212,7 +1212,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1262,7 +1262,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1662,7 +1662,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1712,7 +1712,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1862,7 +1862,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -2322,7 +2322,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2379,7 +2379,7 @@
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2398,7 +2398,7 @@
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2417,7 +2417,7 @@
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2436,7 +2436,7 @@
     <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Егор\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C13461FC-F689-4DA6-873E-A592E5F61EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EF3E46-250A-43B5-A278-EA379DFD2BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>Карманов</t>
   </si>
   <si>
-    <t>Коканов</t>
-  </si>
-  <si>
     <t>Надеждин</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>Чепурченко</t>
   </si>
   <si>
-    <t>Шабанов</t>
-  </si>
-  <si>
     <t>Шаймарданова</t>
   </si>
   <si>
@@ -132,12 +126,6 @@
     <t>Просрочка, дней</t>
   </si>
   <si>
-    <t xml:space="preserve">Хабк </t>
-  </si>
-  <si>
-    <t>Семёнов</t>
-  </si>
-  <si>
     <t>Кузин</t>
   </si>
   <si>
@@ -174,9 +162,6 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t xml:space="preserve">Боуйе </t>
-  </si>
-  <si>
     <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
@@ -187,6 +172,21 @@
   </si>
   <si>
     <t>Мохамед</t>
+  </si>
+  <si>
+    <t>Абделазиз</t>
+  </si>
+  <si>
+    <t>Ко́канов</t>
+  </si>
+  <si>
+    <t>Семенов</t>
+  </si>
+  <si>
+    <t>Хабк</t>
+  </si>
+  <si>
+    <t>Шаба́нов</t>
   </si>
 </sst>
 </file>
@@ -232,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -245,6 +245,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -530,7 +533,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -573,37 +576,37 @@
     </row>
     <row r="2" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -615,8 +618,8 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>1</v>
+      <c r="B3" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="C3" s="2">
         <v>70</v>
@@ -661,8 +664,8 @@
         <f>A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>2</v>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <f>C3-0.5</f>
@@ -711,8 +714,8 @@
         <f t="shared" ref="A5:A38" si="2">A4+1</f>
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
+      <c r="B5" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C38" si="3">C4-0.5</f>
@@ -761,8 +764,8 @@
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
+      <c r="B6" s="6" t="s">
+        <v>3</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" si="3"/>
@@ -811,8 +814,8 @@
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>5</v>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" si="3"/>
@@ -861,8 +864,8 @@
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>46</v>
+      <c r="B8" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="2">
         <f t="shared" si="3"/>
@@ -911,7 +914,7 @@
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2">
@@ -961,7 +964,7 @@
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2">
@@ -1011,7 +1014,7 @@
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2">
@@ -1061,7 +1064,7 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2">
@@ -1111,7 +1114,7 @@
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="2">
@@ -1161,8 +1164,8 @@
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>11</v>
+      <c r="B14" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="3"/>
@@ -1211,8 +1214,8 @@
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>34</v>
+      <c r="B15" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="C15" s="2">
         <f t="shared" si="3"/>
@@ -1261,8 +1264,8 @@
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>50</v>
+      <c r="B16" s="6" t="s">
+        <v>11</v>
       </c>
       <c r="C16" s="2">
         <f t="shared" si="3"/>
@@ -1311,7 +1314,7 @@
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C17" s="2">
@@ -1361,7 +1364,7 @@
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="2">
@@ -1411,7 +1414,7 @@
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="C19" s="2">
@@ -1461,7 +1464,7 @@
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="6" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2">
@@ -1511,7 +1514,7 @@
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="6" t="s">
         <v>16</v>
       </c>
       <c r="C21" s="2">
@@ -1561,7 +1564,7 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="2">
@@ -1611,8 +1614,8 @@
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>18</v>
+      <c r="B23" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="3"/>
@@ -1661,8 +1664,8 @@
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>33</v>
+      <c r="B24" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" si="3"/>
@@ -1711,8 +1714,8 @@
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>43</v>
+      <c r="B25" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" si="3"/>
@@ -1761,7 +1764,7 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="6" t="s">
         <v>19</v>
       </c>
       <c r="C26" s="2">
@@ -1811,8 +1814,8 @@
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>20</v>
+      <c r="B27" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="3"/>
@@ -1861,8 +1864,8 @@
         <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>32</v>
+      <c r="B28" s="6" t="s">
+        <v>20</v>
       </c>
       <c r="C28" s="2">
         <f t="shared" si="3"/>
@@ -1907,7 +1910,7 @@
         <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="6" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="2">
@@ -1953,7 +1956,7 @@
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="6" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="2">
@@ -1999,7 +2002,7 @@
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="6" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="2">
@@ -2045,7 +2048,7 @@
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="6" t="s">
         <v>24</v>
       </c>
       <c r="C32" s="2">
@@ -2091,7 +2094,7 @@
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="6" t="s">
         <v>25</v>
       </c>
       <c r="C33" s="2">
@@ -2137,7 +2140,7 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="6" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="2">
@@ -2183,8 +2186,8 @@
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>27</v>
+      <c r="B35" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="3"/>
@@ -2229,8 +2232,8 @@
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>28</v>
+      <c r="B36" s="6" t="s">
+        <v>27</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="3"/>
@@ -2275,8 +2278,8 @@
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>29</v>
+      <c r="B37" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="3"/>
@@ -2322,7 +2325,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="3"/>
@@ -2379,7 +2382,7 @@
     <row r="40" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C40" s="5">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2398,7 +2401,7 @@
     <row r="41" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C41" s="2">
         <f>AVERAGE(C3:C38)</f>
@@ -2417,7 +2420,7 @@
     <row r="42" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C42" s="2">
         <f>MAX(H3:H38)</f>
@@ -2436,7 +2439,7 @@
     <row r="43" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C43" s="2">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_13.xlsx
+++ b/LR3/table_1_13.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25EF3E46-250A-43B5-A278-EA379DFD2BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13094AD0-9CB5-45C5-B9CB-2B167A78F238}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="540" windowWidth="23256" windowHeight="12528" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,16 +177,16 @@
     <t>Абделазиз</t>
   </si>
   <si>
-    <t>Ко́канов</t>
-  </si>
-  <si>
     <t>Семенов</t>
   </si>
   <si>
     <t>Хабк</t>
   </si>
   <si>
-    <t>Шаба́нов</t>
+    <t>Шабанов</t>
+  </si>
+  <si>
+    <t>Коканов</t>
   </si>
 </sst>
 </file>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="101" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1165,7 +1165,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" s="2">
         <f t="shared" si="3"/>
@@ -1615,7 +1615,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2">
         <f t="shared" si="3"/>
@@ -1815,7 +1815,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2">
         <f t="shared" si="3"/>
@@ -2187,7 +2187,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="3"/>
